--- a/Excel/Holidays/Workdays per month example.xlsx
+++ b/Excel/Holidays/Workdays per month example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitrepos\Public\Excel\Holidays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9FE384-AE78-4ED2-9030-F7D7F16450D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A827A-C2EC-483E-B31D-7709DD86227E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5985" xr2:uid="{BB3D551C-86DD-492C-88D5-70CD4B6A1CA3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nyår</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Workdays in period</t>
+  </si>
+  <si>
+    <t>Swedish holidays in Excel</t>
+  </si>
+  <si>
+    <t>Workdays per month</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mmm"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mmm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -135,7 +141,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5C405E-7E8A-44A3-AD4C-F4E96FD8BA55}">
-  <dimension ref="D1:I20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -464,7 +470,10 @@
     <col min="9" max="9" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
       <c r="D1">
         <v>2018</v>
       </c>
@@ -479,7 +488,10 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
@@ -488,7 +500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -497,7 +509,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -506,7 +518,7 @@
         <v>43471</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>2</v>
       </c>
@@ -515,7 +527,7 @@
         <v>43189</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>3</v>
       </c>
@@ -524,7 +536,7 @@
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>4</v>
       </c>
@@ -533,7 +545,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>5</v>
       </c>
@@ -542,7 +554,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>6</v>
       </c>
@@ -551,7 +563,7 @@
         <v>43230</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -560,7 +572,7 @@
         <v>43257</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -569,7 +581,7 @@
         <v>43273</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -578,7 +590,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>10</v>
       </c>
@@ -587,7 +599,7 @@
         <v>43459</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>11</v>
       </c>
@@ -596,7 +608,7 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>12</v>
       </c>
